--- a/simulation_data/iterative_algorithm/i_error_level_11_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_11_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.52848278422205</v>
+        <v>87.05408941401103</v>
       </c>
       <c r="D2" t="n">
-        <v>29.32203459614887</v>
+        <v>27.9906105325343</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>83.1743327050916</v>
+        <v>90.17996869046446</v>
       </c>
       <c r="D3" t="n">
-        <v>28.41323797241082</v>
+        <v>27.7749296571389</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>84.03358862746668</v>
+        <v>86.73002225342299</v>
       </c>
       <c r="D4" t="n">
-        <v>26.95471715218313</v>
+        <v>27.39316186036544</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.00645025217491</v>
+        <v>92.03583033045769</v>
       </c>
       <c r="D5" t="n">
-        <v>25.51369931125762</v>
+        <v>24.72162156361102</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>94.69003581257786</v>
+        <v>85.15678721823113</v>
       </c>
       <c r="D6" t="n">
-        <v>32.35734229372017</v>
+        <v>30.04862200120369</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>83.42740740885316</v>
+        <v>83.68675578335238</v>
       </c>
       <c r="D7" t="n">
-        <v>29.03747554035212</v>
+        <v>26.69815288890472</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.89419497456507</v>
+        <v>81.17374126530865</v>
       </c>
       <c r="D8" t="n">
-        <v>29.26637325252445</v>
+        <v>27.76341452518556</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.10200755949707</v>
+        <v>80.94512493389885</v>
       </c>
       <c r="D9" t="n">
-        <v>26.20051914454831</v>
+        <v>30.10334164159172</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.57785050137574</v>
+        <v>78.22070680848176</v>
       </c>
       <c r="D10" t="n">
-        <v>27.75365932471948</v>
+        <v>27.78569665893203</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.46598164351451</v>
+        <v>78.18623809544845</v>
       </c>
       <c r="D11" t="n">
-        <v>25.00773717850069</v>
+        <v>30.42948097517235</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>78.3331821186909</v>
+        <v>78.14034621384099</v>
       </c>
       <c r="D12" t="n">
-        <v>25.50038226947387</v>
+        <v>26.31516250891016</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.14496213584825</v>
+        <v>73.30278975118935</v>
       </c>
       <c r="D13" t="n">
-        <v>28.61560481218357</v>
+        <v>25.19602163829294</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>75.37042726131466</v>
+        <v>73.55455800385752</v>
       </c>
       <c r="D14" t="n">
-        <v>26.90977807525001</v>
+        <v>27.03346282943433</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.33366126976075</v>
+        <v>78.47903301174873</v>
       </c>
       <c r="D15" t="n">
-        <v>26.46728563294079</v>
+        <v>27.64072173585572</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>80.37251037677936</v>
+        <v>74.72120410306803</v>
       </c>
       <c r="D16" t="n">
-        <v>30.57997104926218</v>
+        <v>25.10941790038116</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.70767506745621</v>
+        <v>75.0967688097635</v>
       </c>
       <c r="D17" t="n">
-        <v>29.39468342347041</v>
+        <v>27.15608734370167</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.88598628775566</v>
+        <v>75.93374192814093</v>
       </c>
       <c r="D18" t="n">
-        <v>26.18618660672166</v>
+        <v>27.67757883274345</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.64630826499111</v>
+        <v>67.57381316585268</v>
       </c>
       <c r="D19" t="n">
-        <v>30.16829785807732</v>
+        <v>26.90200801810334</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.38086734234327</v>
+        <v>70.34260889985286</v>
       </c>
       <c r="D20" t="n">
-        <v>29.22604029895888</v>
+        <v>28.66869614311614</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>75.40221992918499</v>
+        <v>70.42351090338835</v>
       </c>
       <c r="D21" t="n">
-        <v>28.35026668412883</v>
+        <v>27.08834980407045</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>65.26929214964561</v>
+        <v>71.43140660540398</v>
       </c>
       <c r="D22" t="n">
-        <v>30.5013953556494</v>
+        <v>30.35406642834491</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>66.01168049662158</v>
+        <v>63.79647519742138</v>
       </c>
       <c r="D23" t="n">
-        <v>29.29197242782742</v>
+        <v>29.533030483384</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.20933775762596</v>
+        <v>64.80036429786392</v>
       </c>
       <c r="D24" t="n">
-        <v>25.64723914006114</v>
+        <v>25.91358513560384</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>70.57088813176055</v>
+        <v>65.61411513096334</v>
       </c>
       <c r="D25" t="n">
-        <v>29.28810411534788</v>
+        <v>26.38851725013744</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.26225162749176</v>
+        <v>68.0586056367985</v>
       </c>
       <c r="D26" t="n">
-        <v>30.30065687651942</v>
+        <v>30.8079249182755</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>69.94369338837522</v>
+        <v>58.69646724179447</v>
       </c>
       <c r="D27" t="n">
-        <v>29.67259356129285</v>
+        <v>28.51517375152803</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>67.47285218551359</v>
+        <v>60.9351114107451</v>
       </c>
       <c r="D28" t="n">
-        <v>27.41780923177913</v>
+        <v>26.02879699659033</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>67.16445835809655</v>
+        <v>57.51583425365612</v>
       </c>
       <c r="D29" t="n">
-        <v>28.50598768285598</v>
+        <v>27.54723000036133</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>57.67650811417037</v>
+        <v>61.46673333842511</v>
       </c>
       <c r="D30" t="n">
-        <v>27.97832060817269</v>
+        <v>30.24428356939855</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>56.79718162497367</v>
+        <v>58.99896247399529</v>
       </c>
       <c r="D31" t="n">
-        <v>29.78130950303926</v>
+        <v>26.62952167314214</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.0361619296887</v>
+        <v>60.22043447849214</v>
       </c>
       <c r="D32" t="n">
-        <v>28.76958499956877</v>
+        <v>27.88297623795377</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>57.56329366848352</v>
+        <v>58.87607983669338</v>
       </c>
       <c r="D33" t="n">
-        <v>27.45407511086579</v>
+        <v>26.13494393810872</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>60.72240115907142</v>
+        <v>54.58607821305604</v>
       </c>
       <c r="D34" t="n">
-        <v>30.76940356510413</v>
+        <v>25.7326651831448</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.33550990034249</v>
+        <v>57.90613578261082</v>
       </c>
       <c r="D35" t="n">
-        <v>28.59824740883462</v>
+        <v>25.83980072663651</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.50666027270857</v>
+        <v>59.09913076062927</v>
       </c>
       <c r="D36" t="n">
-        <v>25.70835811499546</v>
+        <v>27.14105941323794</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>52.54167238109605</v>
+        <v>53.21388219898031</v>
       </c>
       <c r="D37" t="n">
-        <v>26.02415370049101</v>
+        <v>29.25800062613832</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.89369432380234</v>
+        <v>49.36460325692607</v>
       </c>
       <c r="D38" t="n">
-        <v>28.22821125199051</v>
+        <v>29.12775616508277</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.07212993572745</v>
+        <v>47.04605315784367</v>
       </c>
       <c r="D39" t="n">
-        <v>31.40691327840708</v>
+        <v>28.98865420869813</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.1110216820317</v>
+        <v>53.4503479778836</v>
       </c>
       <c r="D40" t="n">
-        <v>31.52251583759073</v>
+        <v>29.00405862727229</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.31393133500858</v>
+        <v>49.02636169140917</v>
       </c>
       <c r="D41" t="n">
-        <v>24.60311283242939</v>
+        <v>27.89632819786969</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.32167652027254</v>
+        <v>51.95440335853733</v>
       </c>
       <c r="D42" t="n">
-        <v>23.56181281849484</v>
+        <v>26.01106228830506</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.51413188494471</v>
+        <v>51.51185652786173</v>
       </c>
       <c r="D43" t="n">
-        <v>26.47556928233516</v>
+        <v>32.44276209882651</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>50.02054000769333</v>
+        <v>44.77637663010393</v>
       </c>
       <c r="D44" t="n">
-        <v>28.63543466318278</v>
+        <v>28.85861718981599</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.80309642737381</v>
+        <v>43.26702765642102</v>
       </c>
       <c r="D45" t="n">
-        <v>29.13082081669109</v>
+        <v>26.41943408680605</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>50.28293909828598</v>
+        <v>44.51354008558353</v>
       </c>
       <c r="D46" t="n">
-        <v>25.50638003975851</v>
+        <v>28.1985196697425</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.75319572223653</v>
+        <v>46.22869923888317</v>
       </c>
       <c r="D47" t="n">
-        <v>30.94326431385075</v>
+        <v>26.74683362316524</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.83905311847843</v>
+        <v>44.49509223937201</v>
       </c>
       <c r="D48" t="n">
-        <v>31.1901216960859</v>
+        <v>29.09465026741905</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.69005871650392</v>
+        <v>43.25792181349341</v>
       </c>
       <c r="D49" t="n">
-        <v>23.23036095262178</v>
+        <v>26.47838119739257</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.33755000315815</v>
+        <v>37.55398803972547</v>
       </c>
       <c r="D50" t="n">
-        <v>29.91666400314693</v>
+        <v>26.69826398176872</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.01190410085457</v>
+        <v>32.26296878156111</v>
       </c>
       <c r="D51" t="n">
-        <v>22.33287183452986</v>
+        <v>34.18375566422733</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>46.47989250794613</v>
+        <v>42.26908237585193</v>
       </c>
       <c r="D52" t="n">
-        <v>31.79379269272769</v>
+        <v>29.20317706565738</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>44.35984189342476</v>
+        <v>35.34121217652954</v>
       </c>
       <c r="D53" t="n">
-        <v>29.05237298776499</v>
+        <v>26.47864596950301</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>42.549357064454</v>
+        <v>33.54805336536008</v>
       </c>
       <c r="D54" t="n">
-        <v>27.32704630898071</v>
+        <v>29.76628217078028</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.97394276357966</v>
+        <v>33.64900236374017</v>
       </c>
       <c r="D55" t="n">
-        <v>28.72640948474773</v>
+        <v>27.90504959757477</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.1527103056812</v>
+        <v>30.77112337479039</v>
       </c>
       <c r="D56" t="n">
-        <v>29.31606707608267</v>
+        <v>29.55906719304303</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>32.22874881514141</v>
+        <v>32.01990292278426</v>
       </c>
       <c r="D57" t="n">
-        <v>27.81456305250725</v>
+        <v>26.81771416187612</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>38.24646398591521</v>
+        <v>35.33341044376355</v>
       </c>
       <c r="D58" t="n">
-        <v>27.46993348016252</v>
+        <v>27.80943842142913</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.86030665769663</v>
+        <v>34.18630833560588</v>
       </c>
       <c r="D59" t="n">
-        <v>31.11356945169331</v>
+        <v>30.73189192340888</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.71996951538988</v>
+        <v>33.01368092421442</v>
       </c>
       <c r="D60" t="n">
-        <v>27.75807751955297</v>
+        <v>27.23212822489562</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.72930778280152</v>
+        <v>29.9130627713949</v>
       </c>
       <c r="D61" t="n">
-        <v>31.3342513619121</v>
+        <v>30.56338081076493</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.92829165905366</v>
+        <v>28.42359698583491</v>
       </c>
       <c r="D62" t="n">
-        <v>29.57746578855756</v>
+        <v>27.83476295568121</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>26.5328853829496</v>
+        <v>31.0158148102515</v>
       </c>
       <c r="D63" t="n">
-        <v>31.30989881884678</v>
+        <v>25.64812099030234</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.28585498371133</v>
+        <v>27.25307096726545</v>
       </c>
       <c r="D64" t="n">
-        <v>28.94898402943734</v>
+        <v>31.20441667313538</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.35083004586824</v>
+        <v>26.0425557335695</v>
       </c>
       <c r="D65" t="n">
-        <v>26.54981291715472</v>
+        <v>26.47869378589341</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.93041455441741</v>
+        <v>23.92847902139112</v>
       </c>
       <c r="D66" t="n">
-        <v>28.33538058873059</v>
+        <v>31.00213789122459</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>19.3999701306935</v>
+        <v>22.31188361207699</v>
       </c>
       <c r="D67" t="n">
-        <v>24.64485340919197</v>
+        <v>33.37027996624368</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.32324466307782</v>
+        <v>18.10190480914151</v>
       </c>
       <c r="D68" t="n">
-        <v>28.64392976124859</v>
+        <v>32.10602594698854</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.82953698694976</v>
+        <v>19.59244217989543</v>
       </c>
       <c r="D69" t="n">
-        <v>29.59323884762472</v>
+        <v>27.38460539291414</v>
       </c>
     </row>
   </sheetData>
